--- a/assets/excel/Plantilla.xlsx
+++ b/assets/excel/Plantilla.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gianx\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D82332-C5EE-4529-AD48-CD0C8A749667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB2DC60-6E5D-478A-95AA-4D1A48EDF3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{706E3F33-A2B7-44D1-B7DD-8062A50D6E2B}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="139">
   <si>
     <t>CODIGO_MCP</t>
   </si>
@@ -64,6 +75,384 @@
   </si>
   <si>
     <t>NOTA_PRÁCTICA</t>
+  </si>
+  <si>
+    <t>MCP102030</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Capacitacion 1</t>
+  </si>
+  <si>
+    <t>Interna</t>
+  </si>
+  <si>
+    <t>MCP102031</t>
+  </si>
+  <si>
+    <t>Capacitacion 2</t>
+  </si>
+  <si>
+    <t>Externa</t>
+  </si>
+  <si>
+    <t>John Doe 1</t>
+  </si>
+  <si>
+    <t>John Doe 2</t>
+  </si>
+  <si>
+    <t>John Doe 3</t>
+  </si>
+  <si>
+    <t>John Doe 4</t>
+  </si>
+  <si>
+    <t>John Doe 5</t>
+  </si>
+  <si>
+    <t>John Doe 6</t>
+  </si>
+  <si>
+    <t>John Doe 7</t>
+  </si>
+  <si>
+    <t>John Doe 8</t>
+  </si>
+  <si>
+    <t>John Doe 9</t>
+  </si>
+  <si>
+    <t>John Doe 10</t>
+  </si>
+  <si>
+    <t>John Doe 11</t>
+  </si>
+  <si>
+    <t>John Doe 12</t>
+  </si>
+  <si>
+    <t>John Doe 13</t>
+  </si>
+  <si>
+    <t>John Doe 14</t>
+  </si>
+  <si>
+    <t>John Doe 15</t>
+  </si>
+  <si>
+    <t>John Doe 16</t>
+  </si>
+  <si>
+    <t>John Doe 17</t>
+  </si>
+  <si>
+    <t>John Doe 18</t>
+  </si>
+  <si>
+    <t>John Doe 19</t>
+  </si>
+  <si>
+    <t>John Doe 20</t>
+  </si>
+  <si>
+    <t>John Doe 21</t>
+  </si>
+  <si>
+    <t>John Doe 22</t>
+  </si>
+  <si>
+    <t>John Doe 23</t>
+  </si>
+  <si>
+    <t>John Doe 24</t>
+  </si>
+  <si>
+    <t>John Doe 25</t>
+  </si>
+  <si>
+    <t>John Doe 26</t>
+  </si>
+  <si>
+    <t>John Doe 27</t>
+  </si>
+  <si>
+    <t>John Doe 28</t>
+  </si>
+  <si>
+    <t>John Doe 29</t>
+  </si>
+  <si>
+    <t>John Doe 30</t>
+  </si>
+  <si>
+    <t>Juan Perez 1</t>
+  </si>
+  <si>
+    <t>Juan Perez 2</t>
+  </si>
+  <si>
+    <t>Juan Perez 3</t>
+  </si>
+  <si>
+    <t>Juan Perez 4</t>
+  </si>
+  <si>
+    <t>Juan Perez 5</t>
+  </si>
+  <si>
+    <t>Juan Perez 6</t>
+  </si>
+  <si>
+    <t>Juan Perez 7</t>
+  </si>
+  <si>
+    <t>Juan Perez 8</t>
+  </si>
+  <si>
+    <t>Juan Perez 9</t>
+  </si>
+  <si>
+    <t>Juan Perez 10</t>
+  </si>
+  <si>
+    <t>Juan Perez 11</t>
+  </si>
+  <si>
+    <t>Juan Perez 12</t>
+  </si>
+  <si>
+    <t>Juan Perez 13</t>
+  </si>
+  <si>
+    <t>Juan Perez 14</t>
+  </si>
+  <si>
+    <t>Juan Perez 15</t>
+  </si>
+  <si>
+    <t>Juan Perez 16</t>
+  </si>
+  <si>
+    <t>Juan Perez 17</t>
+  </si>
+  <si>
+    <t>Juan Perez 18</t>
+  </si>
+  <si>
+    <t>Juan Perez 19</t>
+  </si>
+  <si>
+    <t>Juan Perez 20</t>
+  </si>
+  <si>
+    <t>Juan Perez 21</t>
+  </si>
+  <si>
+    <t>Juan Perez 22</t>
+  </si>
+  <si>
+    <t>Juan Perez 23</t>
+  </si>
+  <si>
+    <t>Juan Perez 24</t>
+  </si>
+  <si>
+    <t>Juan Perez 25</t>
+  </si>
+  <si>
+    <t>Juan Perez 26</t>
+  </si>
+  <si>
+    <t>Juan Perez 27</t>
+  </si>
+  <si>
+    <t>Juan Perez 28</t>
+  </si>
+  <si>
+    <t>Juan Perez 29</t>
+  </si>
+  <si>
+    <t>Juan Perez 30</t>
+  </si>
+  <si>
+    <t>Capacitacion 3</t>
+  </si>
+  <si>
+    <t>Capacitacion 4</t>
+  </si>
+  <si>
+    <t>Capacitacion 5</t>
+  </si>
+  <si>
+    <t>Capacitacion 6</t>
+  </si>
+  <si>
+    <t>Capacitacion 7</t>
+  </si>
+  <si>
+    <t>Capacitacion 8</t>
+  </si>
+  <si>
+    <t>Capacitacion 9</t>
+  </si>
+  <si>
+    <t>Capacitacion 10</t>
+  </si>
+  <si>
+    <t>Capacitacion 11</t>
+  </si>
+  <si>
+    <t>Capacitacion 12</t>
+  </si>
+  <si>
+    <t>Capacitacion 13</t>
+  </si>
+  <si>
+    <t>Capacitacion 14</t>
+  </si>
+  <si>
+    <t>Capacitacion 15</t>
+  </si>
+  <si>
+    <t>Capacitacion 16</t>
+  </si>
+  <si>
+    <t>Capacitacion 17</t>
+  </si>
+  <si>
+    <t>Capacitacion 18</t>
+  </si>
+  <si>
+    <t>Capacitacion 19</t>
+  </si>
+  <si>
+    <t>Capacitacion 20</t>
+  </si>
+  <si>
+    <t>Capacitacion 21</t>
+  </si>
+  <si>
+    <t>Capacitacion 22</t>
+  </si>
+  <si>
+    <t>Capacitacion 23</t>
+  </si>
+  <si>
+    <t>Capacitacion 24</t>
+  </si>
+  <si>
+    <t>Capacitacion 25</t>
+  </si>
+  <si>
+    <t>Capacitacion 26</t>
+  </si>
+  <si>
+    <t>Capacitacion 27</t>
+  </si>
+  <si>
+    <t>Capacitacion 28</t>
+  </si>
+  <si>
+    <t>Capacitacion 29</t>
+  </si>
+  <si>
+    <t>Capacitacion 30</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 1</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 3</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 4</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 5</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 6</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 7</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 8</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 9</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 10</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 11</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 12</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 13</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 14</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 15</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 16</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 17</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 18</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 19</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 20</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 21</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 22</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 23</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 24</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 25</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 26</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 27</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 28</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 29</t>
+  </si>
+  <si>
+    <t>Empresa de capacitadora 30</t>
+  </si>
+  <si>
+    <t>CODIGO_ENTRENADOR</t>
+  </si>
+  <si>
+    <t>Entrenamiento Mina</t>
   </si>
 </sst>
 </file>
@@ -106,7 +495,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -114,33 +503,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5B7BE4-0194-42EC-9FF4-F33A2B8D9C14}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,188 +859,1372 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>54283</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K2" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L2">
+        <v>240</v>
+      </c>
+      <c r="M2">
+        <v>-10</v>
+      </c>
+      <c r="N2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>12345678</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>12345</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K3" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L3">
+        <v>240</v>
+      </c>
+      <c r="M3">
+        <v>90</v>
+      </c>
+      <c r="N3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>12345678</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>12345</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K4" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L4">
+        <v>240</v>
+      </c>
+      <c r="M4">
+        <v>90</v>
+      </c>
+      <c r="N4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>12345678</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>12345</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K5" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L5">
+        <v>240</v>
+      </c>
+      <c r="M5">
+        <v>90</v>
+      </c>
+      <c r="N5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>12345</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K6" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L6">
+        <v>240</v>
+      </c>
+      <c r="M6">
+        <v>90</v>
+      </c>
+      <c r="N6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>12345678</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>12345</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K7" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L7">
+        <v>240</v>
+      </c>
+      <c r="M7">
+        <v>90</v>
+      </c>
+      <c r="N7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>12345678</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>12345</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K8" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L8">
+        <v>240</v>
+      </c>
+      <c r="M8">
+        <v>90</v>
+      </c>
+      <c r="N8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>12345678</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>12345</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K9" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L9">
+        <v>240</v>
+      </c>
+      <c r="M9">
+        <v>90</v>
+      </c>
+      <c r="N9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>12345678</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>12345</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K10" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L10">
+        <v>240</v>
+      </c>
+      <c r="M10">
+        <v>90</v>
+      </c>
+      <c r="N10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>12345678</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>12345</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K11" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L11">
+        <v>240</v>
+      </c>
+      <c r="M11">
+        <v>90</v>
+      </c>
+      <c r="N11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>12345678</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>12345</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K12" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L12">
+        <v>240</v>
+      </c>
+      <c r="M12">
+        <v>90</v>
+      </c>
+      <c r="N12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>12345678</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>12345</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K13" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L13">
+        <v>240</v>
+      </c>
+      <c r="M13">
+        <v>90</v>
+      </c>
+      <c r="N13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>12345678</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>12345</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K14" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L14">
+        <v>240</v>
+      </c>
+      <c r="M14">
+        <v>90</v>
+      </c>
+      <c r="N14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>12345678</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>12345</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K15" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L15">
+        <v>240</v>
+      </c>
+      <c r="M15">
+        <v>90</v>
+      </c>
+      <c r="N15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>12345678</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>12345</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K16" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L16">
+        <v>240</v>
+      </c>
+      <c r="M16">
+        <v>90</v>
+      </c>
+      <c r="N16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>12345678</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>12345</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K17" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L17">
+        <v>240</v>
+      </c>
+      <c r="M17">
+        <v>90</v>
+      </c>
+      <c r="N17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>12345678</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>12345</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K18" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L18">
+        <v>240</v>
+      </c>
+      <c r="M18">
+        <v>90</v>
+      </c>
+      <c r="N18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>12345678</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>12345</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K19" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L19">
+        <v>240</v>
+      </c>
+      <c r="M19">
+        <v>90</v>
+      </c>
+      <c r="N19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>12345679</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>12345</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K20" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L20">
+        <v>240</v>
+      </c>
+      <c r="M20">
+        <v>90</v>
+      </c>
+      <c r="N20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>12345679</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>12345</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K21" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L21">
+        <v>240</v>
+      </c>
+      <c r="M21">
+        <v>90</v>
+      </c>
+      <c r="N21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>12345679</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>12345</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K22" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L22">
+        <v>240</v>
+      </c>
+      <c r="M22">
+        <v>90</v>
+      </c>
+      <c r="N22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>12345679</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>12345</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K23" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L23">
+        <v>240</v>
+      </c>
+      <c r="M23">
+        <v>90</v>
+      </c>
+      <c r="N23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>12345679</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>12345</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K24" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L24">
+        <v>240</v>
+      </c>
+      <c r="M24">
+        <v>90</v>
+      </c>
+      <c r="N24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>12345679</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>12345</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K25" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L25">
+        <v>240</v>
+      </c>
+      <c r="M25">
+        <v>90</v>
+      </c>
+      <c r="N25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>12345679</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>12345</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K26" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L26">
+        <v>240</v>
+      </c>
+      <c r="M26">
+        <v>90</v>
+      </c>
+      <c r="N26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>12345679</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>12345</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K27" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L27">
+        <v>240</v>
+      </c>
+      <c r="M27">
+        <v>90</v>
+      </c>
+      <c r="N27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>12345679</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>12345</v>
+      </c>
+      <c r="F28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K28" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L28">
+        <v>240</v>
+      </c>
+      <c r="M28">
+        <v>90</v>
+      </c>
+      <c r="N28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>12345679</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>12345</v>
+      </c>
+      <c r="F29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J29" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K29" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L29">
+        <v>240</v>
+      </c>
+      <c r="M29">
+        <v>90</v>
+      </c>
+      <c r="N29">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>12345679</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>12345</v>
+      </c>
+      <c r="F30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>135</v>
+      </c>
+      <c r="J30" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K30" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L30">
+        <v>240</v>
+      </c>
+      <c r="M30">
+        <v>90</v>
+      </c>
+      <c r="N30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>12345679</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>12345</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s">
+        <v>107</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>136</v>
+      </c>
+      <c r="J31" s="2">
+        <v>45597</v>
+      </c>
+      <c r="K31" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L31">
+        <v>240</v>
+      </c>
+      <c r="M31">
+        <v>90</v>
+      </c>
+      <c r="N31">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
